--- a/datalist/productlist.xlsx
+++ b/datalist/productlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="114">
   <si>
     <t>Theatrhythm: Final Fantasy</t>
   </si>
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F87"/>
+  <dimension ref="A3:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -1274,23 +1274,23 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>43</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1298,38 +1298,38 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>29</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
         <v>39</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1338,39 +1338,39 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
         <v>39</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>42</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,38 +1378,38 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4">
-        <v>39</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>29</v>
-      </c>
-      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1418,39 +1418,39 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>29</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>29.9</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>29</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1458,39 +1458,39 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4">
-        <v>29</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>39</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="2">
-        <v>39</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3</v>
+      <c r="E39" s="4">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,39 +1498,39 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="4">
-        <v>29</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>6</v>
+      <c r="E40" s="2">
+        <v>42</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>42</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,39 +1538,39 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
         <v>39</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>49.9</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1578,39 +1578,39 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
         <v>39</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>29</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1618,39 +1618,39 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4">
-        <v>39</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>29</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1658,38 +1658,38 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="4">
-        <v>32.9</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>39</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
         <v>39</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1698,38 +1698,38 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4">
-        <v>39</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2">
+        <v>29</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="2">
-        <v>29</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="4">
+        <v>29</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1738,38 +1738,38 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="4">
-        <v>29</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="2">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="2">
-        <v>29</v>
-      </c>
-      <c r="F53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>29</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1778,39 +1778,39 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="4">
-        <v>29</v>
-      </c>
-      <c r="F54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>29</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2">
-        <v>29</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>99</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,39 +1818,39 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4">
-        <v>99</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>29</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2">
-        <v>29</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>51</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1858,39 +1858,39 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
         <v>51</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2">
-        <v>43</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1898,38 +1898,38 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4">
-        <v>51</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2">
+        <v>77</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4">
         <v>49.9</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1938,39 +1938,39 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="4">
-        <v>49.9</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="2">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>52</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1978,38 +1978,38 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="4">
-        <v>52</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2">
-        <v>29</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>29</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2018,39 +2018,39 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="4">
-        <v>29</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2">
-        <v>34.9</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>39</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2058,39 +2058,39 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
         <v>39</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="2">
-        <v>39</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4">
+        <v>29</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2098,39 +2098,39 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="4">
-        <v>29</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="2">
-        <v>49.9</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>29</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2138,39 +2138,39 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="4">
-        <v>29</v>
-      </c>
-      <c r="F72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>29</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="2">
-        <v>29</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2178,39 +2178,39 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>53</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="2">
-        <v>53</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2218,38 +2218,38 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="4">
-        <v>49.9</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>29</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="2">
-        <v>29</v>
-      </c>
-      <c r="F77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4">
+        <v>29</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2258,39 +2258,39 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="4">
-        <v>29</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>39</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="2">
-        <v>39</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4">
+        <v>52</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,39 +2298,39 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="4">
-        <v>52</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="2">
-        <v>29.9</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2338,39 +2338,39 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="4">
-        <v>49.9</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="A83" s="3">
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="2">
-        <v>44.9</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4">
+        <v>42</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2378,39 +2378,39 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="4">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>29</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="4">
         <v>42</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2">
-        <v>29</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>6</v>
+      <c r="F85" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2418,38 +2418,18 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="4">
-        <v>42</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
         <v>44</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>107</v>
       </c>
     </row>
